--- a/ECAD/FluxpadKicad/Production/FLUXPAD_PCBWAY_BOM.xlsx
+++ b/ECAD/FluxpadKicad/Production/FLUXPAD_PCBWAY_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Documents\GitHub\flux_keypad\ECAD\FluxpadKicad\Production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2331CFC8-3D06-4398-9AC7-0336C6EDA58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A910EFF8-3085-4436-A3BE-0668F1EE3BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +254,17 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -308,7 +319,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,6 +355,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -356,11 +373,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -717,7 +734,7 @@
   <dimension ref="A2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -735,25 +752,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="D2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -856,7 +873,7 @@
       <c r="E9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="19" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -883,7 +900,7 @@
       <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -898,7 +915,7 @@
       <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="6">
@@ -910,7 +927,7 @@
       <c r="E11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="19" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="11" t="s">
@@ -940,13 +957,13 @@
       <c r="F12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1064,15 +1081,15 @@
       <c r="I22"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="12"/>
@@ -1086,15 +1103,15 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="13.5">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
